--- a/medicine/Enfance/Robert_Boudet/Robert_Boudet.xlsx
+++ b/medicine/Enfance/Robert_Boudet/Robert_Boudet.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Robert Boudet est un écrivain français[1], né à Vichy le 20 août 1941 et mort  à Coubron le 17 février 1994[2].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Robert Boudet est un écrivain français, né à Vichy le 20 août 1941 et mort  à Coubron le 17 février 1994.
 </t>
         </is>
       </c>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Enseignant, il est également poète par passion, auteur de romans, de contes et de pièces de café-théâtre. Il est aussi acteur et metteur en scène au théâtre La Cour des Potiers au Raincy, et a écrit pour le théâtre, la radio et la télévision. Proche de la jeunesse (il a animé des groupes de jeunes pendant de nombreuses années), il a également écrit de nombreux livres pour enfants. Il est mort quelques jours avant la publication du second volet des aventures de Max Ralentir : collège hanté !.
 </t>
@@ -542,7 +556,9 @@
           <t>Œuvre</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Les Voyages fous, fous, fous d'Alexis, Père Castor Flammarion, Castor poche - 2004
 L'Extraordinaire Aventure de M. Potiron, Illustrateur : Pierre Bouillé, Nathan, Demi-Lune - 2003/1996
